--- a/results/sfcc_CNN_2layers_adaptive_maxpool_3_PCC.xlsx
+++ b/results/sfcc_CNN_2layers_adaptive_maxpool_3_PCC.xlsx
@@ -1,37 +1,153 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\StudyCode\functionalconnectivity_sfcc\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEAF946-8D59-417E-AF6A-FF5AD3443A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="K-Fold Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="K-Fold Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>f1_score</t>
+  </si>
+  <si>
+    <t>sub1</t>
+  </si>
+  <si>
+    <t>sub2</t>
+  </si>
+  <si>
+    <t>sub3</t>
+  </si>
+  <si>
+    <t>sub4</t>
+  </si>
+  <si>
+    <t>sub5</t>
+  </si>
+  <si>
+    <t>sub6</t>
+  </si>
+  <si>
+    <t>sub7</t>
+  </si>
+  <si>
+    <t>sub8</t>
+  </si>
+  <si>
+    <t>sub9</t>
+  </si>
+  <si>
+    <t>sub10</t>
+  </si>
+  <si>
+    <t>sub11</t>
+  </si>
+  <si>
+    <t>sub12</t>
+  </si>
+  <si>
+    <t>sub13</t>
+  </si>
+  <si>
+    <t>sub14</t>
+  </si>
+  <si>
+    <t>sub15</t>
+  </si>
+  <si>
+    <t>sub16</t>
+  </si>
+  <si>
+    <t>sub17</t>
+  </si>
+  <si>
+    <t>sub18</t>
+  </si>
+  <si>
+    <t>sub19</t>
+  </si>
+  <si>
+    <t>sub20</t>
+  </si>
+  <si>
+    <t>sub21</t>
+  </si>
+  <si>
+    <t>sub22</t>
+  </si>
+  <si>
+    <t>sub23</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +162,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,66 +486,809 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Identifier</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>loss</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>recall</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>sub1</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>78.26698489035638</v>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>78.266984890356383</v>
+      </c>
+      <c r="C2">
         <v>1.314408933586553</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.7826698489035638</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.7428311067537394</v>
+      <c r="D2">
+        <v>0.78266984890356384</v>
+      </c>
+      <c r="E2">
+        <v>0.74283110675373942</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>76.245917525033207</v>
+      </c>
+      <c r="C3">
+        <v>0.92499944866479689</v>
+      </c>
+      <c r="D3">
+        <v>0.76245917525033202</v>
+      </c>
+      <c r="E3">
+        <v>0.7429396976857735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>74.719484621182204</v>
+      </c>
+      <c r="C4">
+        <v>0.79840002659669451</v>
+      </c>
+      <c r="D4">
+        <v>0.74719484621182208</v>
+      </c>
+      <c r="E4">
+        <v>0.74911272488909297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>79.717510677242217</v>
+      </c>
+      <c r="C5">
+        <v>0.81915588573151954</v>
+      </c>
+      <c r="D5">
+        <v>0.7971751067724222</v>
+      </c>
+      <c r="E5">
+        <v>0.77898844159781533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>74.638158130854535</v>
+      </c>
+      <c r="C6">
+        <v>0.95884579231571165</v>
+      </c>
+      <c r="D6">
+        <v>0.74638158130854537</v>
+      </c>
+      <c r="E6">
+        <v>0.72263562972820083</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>75.899831317517851</v>
+      </c>
+      <c r="C7">
+        <v>0.83445039289072154</v>
+      </c>
+      <c r="D7">
+        <v>0.75899831317517852</v>
+      </c>
+      <c r="E7">
+        <v>0.764918012981045</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>78.792053978394279</v>
+      </c>
+      <c r="C8">
+        <v>1.6745406288964051</v>
+      </c>
+      <c r="D8">
+        <v>0.78792053978394283</v>
+      </c>
+      <c r="E8">
+        <v>0.77574839420945108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>84.993396260273485</v>
+      </c>
+      <c r="C9">
+        <v>0.63503993852064011</v>
+      </c>
+      <c r="D9">
+        <v>0.84993396260273479</v>
+      </c>
+      <c r="E9">
+        <v>0.8384080723618148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>85.073933173025154</v>
+      </c>
+      <c r="C10">
+        <v>0.62337081947674355</v>
+      </c>
+      <c r="D10">
+        <v>0.85073933173025151</v>
+      </c>
+      <c r="E10">
+        <v>0.84628026668869083</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>76.675663065714389</v>
+      </c>
+      <c r="C11">
+        <v>1.0156462980123859</v>
+      </c>
+      <c r="D11">
+        <v>0.76675663065714394</v>
+      </c>
+      <c r="E11">
+        <v>0.76693328896348523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>69.326310878225598</v>
+      </c>
+      <c r="C12">
+        <v>0.92201090374340622</v>
+      </c>
+      <c r="D12">
+        <v>0.69326310878225605</v>
+      </c>
+      <c r="E12">
+        <v>0.67669032654247485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>81.691275167785236</v>
+      </c>
+      <c r="C13">
+        <v>0.94250592550573253</v>
+      </c>
+      <c r="D13">
+        <v>0.81691275167785238</v>
+      </c>
+      <c r="E13">
+        <v>0.79826217981548298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>62.144385026737957</v>
+      </c>
+      <c r="C14">
+        <v>1.391487052976542</v>
+      </c>
+      <c r="D14">
+        <v>0.62144385026737969</v>
+      </c>
+      <c r="E14">
+        <v>0.58759254966457641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>83.355704697986567</v>
+      </c>
+      <c r="C15">
+        <v>0.8225164981558919</v>
+      </c>
+      <c r="D15">
+        <v>0.83355704697986577</v>
+      </c>
+      <c r="E15">
+        <v>0.82390949598914653</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>85.935577647776626</v>
+      </c>
+      <c r="C16">
+        <v>1.349971512182734</v>
+      </c>
+      <c r="D16">
+        <v>0.85935577647776618</v>
+      </c>
+      <c r="E16">
+        <v>0.84118641670241223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>85.342497218533538</v>
+      </c>
+      <c r="C17">
+        <v>0.67182523655937987</v>
+      </c>
+      <c r="D17">
+        <v>0.85342497218533531</v>
+      </c>
+      <c r="E17">
+        <v>0.84907548793531618</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>82.791946308724832</v>
+      </c>
+      <c r="C18">
+        <v>1.0795661478924261</v>
+      </c>
+      <c r="D18">
+        <v>0.8279194630872484</v>
+      </c>
+      <c r="E18">
+        <v>0.80817219133649965</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>76.298316764167538</v>
+      </c>
+      <c r="C19">
+        <v>1.751097398130635</v>
+      </c>
+      <c r="D19">
+        <v>0.76298316764167529</v>
+      </c>
+      <c r="E19">
+        <v>0.75577382213194377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>81.87919463087249</v>
+      </c>
+      <c r="C20">
+        <v>1.144598821515683</v>
+      </c>
+      <c r="D20">
+        <v>0.81879194630872476</v>
+      </c>
+      <c r="E20">
+        <v>0.80194236138435071</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>54.347916591896059</v>
+      </c>
+      <c r="C21">
+        <v>2.133843192396065</v>
+      </c>
+      <c r="D21">
+        <v>0.54347916591896062</v>
+      </c>
+      <c r="E21">
+        <v>0.47762185780727628</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>92.564081398270105</v>
+      </c>
+      <c r="C22">
+        <v>0.28003464485324608</v>
+      </c>
+      <c r="D22">
+        <v>0.92564081398270104</v>
+      </c>
+      <c r="E22">
+        <v>0.91262783141029247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>84.107382550335572</v>
+      </c>
+      <c r="C23">
+        <v>0.8388522278671493</v>
+      </c>
+      <c r="D23">
+        <v>0.84107382550335574</v>
+      </c>
+      <c r="E23">
+        <v>0.82712553696371194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>83.597423105911076</v>
+      </c>
+      <c r="C24">
+        <v>0.8118684560351539</v>
+      </c>
+      <c r="D24">
+        <v>0.83597423105911051</v>
+      </c>
+      <c r="E24">
+        <v>0.81090710512488862</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B25">
+        <f>AVERAGE(B2:B24)</f>
+        <v>78.626301983774653</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>78.883357858091387</v>
+      </c>
+      <c r="C26">
+        <v>1.2941303361570611</v>
+      </c>
+      <c r="D26">
+        <v>0.78883357858091374</v>
+      </c>
+      <c r="E26">
+        <v>0.76216258474800314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>74.283817248681046</v>
+      </c>
+      <c r="C27">
+        <v>1.3995921543799339</v>
+      </c>
+      <c r="D27">
+        <v>0.7428381724868105</v>
+      </c>
+      <c r="E27">
+        <v>0.72580129057711085</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>81.511323260237589</v>
+      </c>
+      <c r="C28">
+        <v>0.57811800433943672</v>
+      </c>
+      <c r="D28">
+        <v>0.815113232602376</v>
+      </c>
+      <c r="E28">
+        <v>0.81929515754987181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>80.916807235401791</v>
+      </c>
+      <c r="C29">
+        <v>0.91204760838790355</v>
+      </c>
+      <c r="D29">
+        <v>0.80916807235401789</v>
+      </c>
+      <c r="E29">
+        <v>0.78961892101700104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>79.107813229013388</v>
+      </c>
+      <c r="C30">
+        <v>0.79055005745337137</v>
+      </c>
+      <c r="D30">
+        <v>0.79107813229013391</v>
+      </c>
+      <c r="E30">
+        <v>0.78040099066516277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>75.123353551304604</v>
+      </c>
+      <c r="C31">
+        <v>0.81266093924641614</v>
+      </c>
+      <c r="D31">
+        <v>0.75123353551304595</v>
+      </c>
+      <c r="E31">
+        <v>0.75731202799574426</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>77.907224634820366</v>
+      </c>
+      <c r="C32">
+        <v>1.631620456045493</v>
+      </c>
+      <c r="D32">
+        <v>0.77907224634820371</v>
+      </c>
+      <c r="E32">
+        <v>0.76731595884333947</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>80.163119549222984</v>
+      </c>
+      <c r="C33">
+        <v>0.8420031025229644</v>
+      </c>
+      <c r="D33">
+        <v>0.80163119549222972</v>
+      </c>
+      <c r="E33">
+        <v>0.80717902397859298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>82.873236909162685</v>
+      </c>
+      <c r="C34">
+        <v>0.66632862997551767</v>
+      </c>
+      <c r="D34">
+        <v>0.82873236909162684</v>
+      </c>
+      <c r="E34">
+        <v>0.82094365777731892</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35">
+        <v>76.654739259950475</v>
+      </c>
+      <c r="C35">
+        <v>0.96301682371025288</v>
+      </c>
+      <c r="D35">
+        <v>0.76654739259950477</v>
+      </c>
+      <c r="E35">
+        <v>0.76734395483593887</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36">
+        <v>78.389584753974802</v>
+      </c>
+      <c r="C36">
+        <v>0.92970997973655667</v>
+      </c>
+      <c r="D36">
+        <v>0.78389584753974806</v>
+      </c>
+      <c r="E36">
+        <v>0.78671244911035232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37">
+        <v>83.302013422818803</v>
+      </c>
+      <c r="C37">
+        <v>1.3701426549203459</v>
+      </c>
+      <c r="D37">
+        <v>0.83302013422818799</v>
+      </c>
+      <c r="E37">
+        <v>0.80709645844258338</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38">
+        <v>65.394322219430791</v>
+      </c>
+      <c r="C38">
+        <v>1.452578923432156</v>
+      </c>
+      <c r="D38">
+        <v>0.65394322219430789</v>
+      </c>
+      <c r="E38">
+        <v>0.62988241673843604</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39">
+        <v>83.140939597315437</v>
+      </c>
+      <c r="C39">
+        <v>0.88231707538167625</v>
+      </c>
+      <c r="D39">
+        <v>0.83140939597315433</v>
+      </c>
+      <c r="E39">
+        <v>0.82535103920507635</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40">
+        <v>82.850482719018061</v>
+      </c>
+      <c r="C40">
+        <v>1.769063663251055</v>
+      </c>
+      <c r="D40">
+        <v>0.82850482719018059</v>
+      </c>
+      <c r="E40">
+        <v>0.81521121260847129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41">
+        <v>84.617880343107345</v>
+      </c>
+      <c r="C41">
+        <v>0.88611536029493432</v>
+      </c>
+      <c r="D41">
+        <v>0.84617880343107343</v>
+      </c>
+      <c r="E41">
+        <v>0.83296218072723671</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42">
+        <v>80.188134802426163</v>
+      </c>
+      <c r="C42">
+        <v>0.96981823382278287</v>
+      </c>
+      <c r="D42">
+        <v>0.80188134802426148</v>
+      </c>
+      <c r="E42">
+        <v>0.7986439606298934</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>77.565122205074829</v>
+      </c>
+      <c r="C43">
+        <v>1.7328206258316641</v>
+      </c>
+      <c r="D43">
+        <v>0.77565122205074832</v>
+      </c>
+      <c r="E43">
+        <v>0.76481060294088332</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44">
+        <v>82.147651006711413</v>
+      </c>
+      <c r="C44">
+        <v>1.7287761638717101</v>
+      </c>
+      <c r="D44">
+        <v>0.82147651006711409</v>
+      </c>
+      <c r="E44">
+        <v>0.79847368652232709</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45">
+        <v>54.455299142231638</v>
+      </c>
+      <c r="C45">
+        <v>2.7264156626227001</v>
+      </c>
+      <c r="D45">
+        <v>0.54455299142231639</v>
+      </c>
+      <c r="E45">
+        <v>0.48934024044454488</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46">
+        <v>90.631410831568743</v>
+      </c>
+      <c r="C46">
+        <v>0.36224706120847261</v>
+      </c>
+      <c r="D46">
+        <v>0.90631410831568748</v>
+      </c>
+      <c r="E46">
+        <v>0.89674741321540918</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47">
+        <v>81.369342856117427</v>
+      </c>
+      <c r="C47">
+        <v>0.99222108493443861</v>
+      </c>
+      <c r="D47">
+        <v>0.81369342856117444</v>
+      </c>
+      <c r="E47">
+        <v>0.81056476307522085</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B48">
+        <f>AVERAGE(B26:B47)</f>
+        <v>78.703498937985529</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/results/sfcc_CNN_2layers_adaptive_maxpool_3_PCC.xlsx
+++ b/results/sfcc_CNN_2layers_adaptive_maxpool_3_PCC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="K-Fold Results" sheetId="1" state="visible" r:id="rId1"/>
@@ -443,13 +443,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1763,6 +1763,430 @@
         <v>0.8053565467711989</v>
       </c>
     </row>
+    <row r="71">
+      <c r="B71">
+        <f>AVERAGE(B49:B70)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>sub1</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>77.75648709758461</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.18687032294597</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.7775648709758461</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.749188137603901</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>sub2</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>72.40408426946129</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.205648895578149</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.724040842694613</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.7090576820506443</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>sub3</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>81.10293220399814</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.6183683979635437</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.8110293220399815</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.8103080551872939</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>sub4</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>74.60043785665577</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.412722932546061</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.7460043785665578</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.718521830399295</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>sub5</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>71.83792125758174</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.466401624479154</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.7183792125758174</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.6701755086617585</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>sub6</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>74.62469942217277</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.8114591826995214</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.7462469942217277</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.7509133262803159</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>sub7</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>77.36988120446469</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.721512008955081</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.773698812044647</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.764319992531469</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>sub8</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>82.01342281879195</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.8086397961713374</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.8201342281879194</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.8245106655451033</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>sub9</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>83.94695474284893</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.8157240790935854</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.8394695474284894</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.8219842085434668</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>sub10</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>81.05247101891396</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.7443349972677729</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.8105247101891397</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.810823242978663</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>sub11</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>80.88590604026845</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.8616954910413673</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.8088590604026846</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.804131911876366</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>sub12</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>85.02013422818791</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.021063757369605</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.8502013422818792</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.8308012475743926</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>sub13</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>69.06033090478412</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.384026304384073</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.6906033090478412</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.6812618679922245</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>sub14</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>84.18791946308724</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.6819448628385241</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.8418791946308725</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.8375647313767424</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>sub15</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>86.36413882209381</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.436155225356643</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.8636413882209382</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.8421508427371069</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>sub16</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>84.02684563758389</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.6311244939114355</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.8402684563758388</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.8325075764276584</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>sub17</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>81.18131572336073</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.8178235261613735</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.8118131572336074</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.8029998595384951</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>sub18</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>78.71528550407349</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.460724732088117</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.7871528550407351</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.7732150785048924</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>sub19</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>81.07382550335571</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.243872883877096</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.810738255033557</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.7964693836314863</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>sub20</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>52.41610738255033</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2.39362248427545</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.5241610738255034</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.4643755643874557</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>sub21</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>91.16832358324659</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.4257052174381291</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.9116832358324659</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.9045556521787868</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>sub22</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>81.61149194271974</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.062825981977145</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.8161149194271975</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.8064688423630265</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
